--- a/UIFunctionTest.xlsx
+++ b/UIFunctionTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentbhtafeedu-my.sharepoint.com/personal/s10168314_student_bhtafe_edu_au/Documents/Cert 4 Programming/ICTICT449 Javascript/Assessments/JSAT2/Part5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentbhtafeedu-my.sharepoint.com/personal/s10168314_student_bhtafe_edu_au/Documents/Cert 4 Programming/ICTICT449 Javascript/Assessments/JSAT2/Part5/JS-AT2-Part5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{44B9C5A5-A56F-4E35-831E-6153A7234269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFCDF8B2-613E-4C32-B8E6-B5232FF8BEF3}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{44B9C5A5-A56F-4E35-831E-6153A7234269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A11AB8-A009-4009-AACE-1AE75CEFF439}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -227,6 +227,45 @@
   <si>
     <t>After entering a no data into the empty search field, click the search button.</t>
   </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>movie list displayed no movies.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>button will is clickable by the user, and the movie list will not be updated.</t>
+  </si>
+  <si>
+    <t>button is clickable by the user and the movie list is updated as expected.</t>
+  </si>
+  <si>
+    <t>Form did not accept the user input. No movie was added.</t>
+  </si>
+  <si>
+    <t>A movie with invalid data is added to the list.</t>
+  </si>
+  <si>
+    <t>Form did not accept the user input. No movie was updated.</t>
+  </si>
+  <si>
+    <t>Movie was updated with invalid data.</t>
+  </si>
+  <si>
+    <t>No movie data is changed.</t>
+  </si>
+  <si>
+    <t>The movie at the bottom of the list deleted.</t>
+  </si>
+  <si>
+    <t>Rob Hodgskiss</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -295,8 +334,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -435,95 +492,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -535,11 +541,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -851,27 +908,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="28">
+      <c r="B1" s="24"/>
+      <c r="C1" s="32">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
@@ -889,67 +946,73 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="34" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="28">
+        <v>45827</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="27"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="41"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12" t="s">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="13"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="3">
@@ -967,12 +1030,16 @@
         <v>14</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="3">
@@ -990,12 +1057,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="H8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="3">
@@ -1013,12 +1084,16 @@
         <v>45</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
+      <c r="H9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="3">
@@ -1036,12 +1111,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
+      <c r="H10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A11" s="3">
@@ -1059,81 +1138,97 @@
         <v>20</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
+      <c r="H11" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="14" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="3">
@@ -1151,12 +1246,16 @@
         <v>27</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
+      <c r="H15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="3">
@@ -1174,12 +1273,16 @@
         <v>29</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="11"/>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A17" s="3">
@@ -1197,12 +1300,16 @@
         <v>48</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
+      <c r="H17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="3">
@@ -1220,35 +1327,43 @@
         <v>31</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
+      <c r="H18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="14" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="3">
@@ -1266,12 +1381,16 @@
         <v>33</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="11"/>
+      <c r="H20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A21" s="3">
@@ -1289,12 +1408,16 @@
         <v>36</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="11"/>
+      <c r="H21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A22" s="3">
@@ -1312,12 +1435,16 @@
         <v>51</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="11"/>
+      <c r="H22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A23" s="3">
@@ -1335,12 +1462,16 @@
         <v>51</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="16"/>
+      <c r="H23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="3">
@@ -1358,35 +1489,43 @@
         <v>50</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="11"/>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="3">
         <v>19</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="14" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="41"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="3">
@@ -1404,12 +1543,16 @@
         <v>39</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="11"/>
+      <c r="H26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="3">
@@ -1427,12 +1570,16 @@
         <v>42</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="11"/>
+      <c r="H27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="3">
@@ -1450,12 +1597,16 @@
         <v>56</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="16"/>
+      <c r="H28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="3">
@@ -1473,24 +1624,113 @@
         <v>56</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="16"/>
+      <c r="H29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="F27:G27"/>
@@ -1515,104 +1755,19 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>

--- a/UIFunctionTest.xlsx
+++ b/UIFunctionTest.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentbhtafeedu-my.sharepoint.com/personal/s10168314_student_bhtafe_edu_au/Documents/Cert 4 Programming/ICTICT449 Javascript/Assessments/JSAT2/Part5/JS-AT2-Part5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{44B9C5A5-A56F-4E35-831E-6153A7234269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54A11AB8-A009-4009-AACE-1AE75CEFF439}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{44B9C5A5-A56F-4E35-831E-6153A7234269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3774A8AE-DF91-4ADD-917F-ED4EEA5B31C3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case ID 01" sheetId="10" r:id="rId1"/>
+    <sheet name="Test Case ID 02" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="78">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -243,9 +244,6 @@
     <t>button is clickable by the user and the movie list is updated as expected.</t>
   </si>
   <si>
-    <t>Form did not accept the user input. No movie was added.</t>
-  </si>
-  <si>
     <t>A movie with invalid data is added to the list.</t>
   </si>
   <si>
@@ -258,13 +256,40 @@
     <t>No movie data is changed.</t>
   </si>
   <si>
-    <t>The movie at the bottom of the list deleted.</t>
-  </si>
-  <si>
     <t>Rob Hodgskiss</t>
   </si>
   <si>
     <t>FAIL</t>
+  </si>
+  <si>
+    <t>button is clickable by the user, and the movie list will update to display only movies containing the search string.</t>
+  </si>
+  <si>
+    <t>With partial data entered in the Add a movie form, click the Add a movie button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID: 1234
+Title: 
+Year: 2000
+Rating: </t>
+  </si>
+  <si>
+    <t>Form will not accept the user input. No movie was updated.</t>
+  </si>
+  <si>
+    <t>Form will not accept the user input. No movie was added.</t>
+  </si>
+  <si>
+    <t>button is clickable by the user, and the movie list is not updated.</t>
+  </si>
+  <si>
+    <t>No movie was deleted from the list.</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>The movie at the bottom of the list was deleted.</t>
   </si>
 </sst>
 </file>
@@ -347,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -492,6 +523,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -501,35 +541,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
@@ -541,61 +620,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -885,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883A4F42-1B46-4B1E-B91B-251F58B3FD09}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -908,27 +948,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="32">
+      <c r="B1" s="17"/>
+      <c r="C1" s="27">
         <v>1</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2"/>
@@ -946,73 +986,73 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="28">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="21">
         <v>45827</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="41"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="13"/>
+      <c r="F5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="17" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="3">
@@ -1030,16 +1070,16 @@
         <v>14</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A8" s="3">
@@ -1057,16 +1097,16 @@
         <v>16</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="10"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A9" s="3">
@@ -1084,16 +1124,16 @@
         <v>45</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
+      <c r="H9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="3">
@@ -1111,16 +1151,16 @@
         <v>25</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A11" s="3">
@@ -1138,97 +1178,97 @@
         <v>20</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="6" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="6" t="s">
+      <c r="G13" s="15"/>
+      <c r="H13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="15"/>
+      <c r="D14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9" t="s">
+      <c r="E14" s="15"/>
+      <c r="F14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="15"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
     </row>
     <row r="15" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A15" s="3">
@@ -1246,16 +1286,16 @@
         <v>27</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A16" s="3">
@@ -1273,16 +1313,16 @@
         <v>29</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A17" s="3">
@@ -1297,19 +1337,19 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A18" s="3">
@@ -1327,43 +1367,43 @@
         <v>31</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="H18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="10"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="9" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="15"/>
+      <c r="H19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="14"/>
-      <c r="M19" s="15"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A20" s="3">
@@ -1381,16 +1421,16 @@
         <v>33</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A21" s="3">
@@ -1408,16 +1448,16 @@
         <v>36</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A22" s="3">
@@ -1435,16 +1475,16 @@
         <v>51</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="8"/>
+      <c r="H22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A23" s="3">
@@ -1462,16 +1502,16 @@
         <v>51</v>
       </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="11" t="s">
+      <c r="H23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A24" s="3">
@@ -1489,43 +1529,43 @@
         <v>50</v>
       </c>
       <c r="G24" s="5"/>
-      <c r="H24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8"/>
+      <c r="H24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A25" s="3">
         <v>19</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="6" t="s">
+      <c r="G25" s="15"/>
+      <c r="H25" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A26" s="3">
@@ -1543,16 +1583,16 @@
         <v>39</v>
       </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A27" s="3">
@@ -1570,16 +1610,16 @@
         <v>42</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A28" s="3">
@@ -1597,16 +1637,16 @@
         <v>56</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11" t="s">
+      <c r="H28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A29" s="3">
@@ -1624,85 +1664,47 @@
         <v>56</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11" t="s">
+      <c r="H29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="131">
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="K5:M6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="D5:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="H18:J18"/>
@@ -1727,40 +1729,18 @@
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -1768,6 +1748,970 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;11&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BF5C2E-C0F1-4148-BC9B-D3F85BAAF595}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="32.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="24.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="11" max="11" width="9.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="9" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="27">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="21">
+        <v>45827</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="24"/>
+      <c r="L3" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="13"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+    </row>
+    <row r="14" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+    </row>
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="11"/>
+    </row>
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" s="10"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+    </row>
+    <row r="27" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13" s="4" customFormat="1" ht="60" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="136">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="K5:M6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
